--- a/manual/function_mapping/FSnode.xlsx
+++ b/manual/function_mapping/FSnode.xlsx
@@ -11,7 +11,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="234">
+  <si>
+    <t>Class-structure:</t>
+  </si>
+  <si>
+    <t>Required by:</t>
+  </si>
   <si>
     <t>scope</t>
   </si>
@@ -37,12 +43,15 @@
     <t>FSnode_dropbox</t>
   </si>
   <si>
-    <t>Required by:</t>
+    <t>FSnode_git</t>
   </si>
   <si>
     <t>FSfile</t>
   </si>
   <si>
+    <t>FSarchive</t>
+  </si>
+  <si>
     <t>FSbrowser</t>
   </si>
   <si>
@@ -64,6 +73,114 @@
     <t>YES</t>
   </si>
   <si>
+    <t>object *</t>
+  </si>
+  <si>
+    <t>new ()</t>
+  </si>
+  <si>
+    <t>inherit</t>
+  </si>
+  <si>
+    <t>DEFINED VARIABLES</t>
+  </si>
+  <si>
+    <t>PREFIX</t>
+  </si>
+  <si>
+    <t>prefix</t>
+  </si>
+  <si>
+    <t>POSTFIX</t>
+  </si>
+  <si>
+    <t>postfix</t>
+  </si>
+  <si>
+    <t>ITTERATION</t>
+  </si>
+  <si>
+    <t>itteration</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>OPERATOR_OR</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>OPERATOR_AND</t>
+  </si>
+  <si>
+    <t>AND</t>
+  </si>
+  <si>
+    <t>FSnode_*_URI_PREFIX</t>
+  </si>
+  <si>
+    <t>(string: '*:// *://' )</t>
+  </si>
+  <si>
+    <t>FSnode_*_SCHEME</t>
+  </si>
+  <si>
+    <t>(string)</t>
+  </si>
+  <si>
+    <t>FSnode_ALLOW_CODE_EXECUTE</t>
+  </si>
+  <si>
+    <t>(bool)</t>
+  </si>
+  <si>
+    <t>FSnode_EXTENSION_DIRECTORY</t>
+  </si>
+  <si>
+    <t>(URI)</t>
+  </si>
+  <si>
+    <t>PHP_URL_SCHEME</t>
+  </si>
+  <si>
+    <t>PHP_URL_HOST</t>
+  </si>
+  <si>
+    <t>PHP_URL_PORT</t>
+  </si>
+  <si>
+    <t>PHP_URL_USER</t>
+  </si>
+  <si>
+    <t>PHP_URL_PASS</t>
+  </si>
+  <si>
+    <t>PHP_URL_PATH</t>
+  </si>
+  <si>
+    <t>PHP_URL_QUERY</t>
+  </si>
+  <si>
+    <t>PHP_URL_FRAGMENT</t>
+  </si>
+  <si>
+    <t>SCANDIR_SORT_ASCENDING</t>
+  </si>
+  <si>
+    <t>SCANDIR_SORT_DESCENDING</t>
+  </si>
+  <si>
+    <t>DIRECTORY_SEPARATOR</t>
+  </si>
+  <si>
+    <t>FILEINFO_MIME_TYPE</t>
+  </si>
+  <si>
     <t>OBJECT VARIABLES</t>
   </si>
   <si>
@@ -79,9 +196,6 @@
     <t>hooks</t>
   </si>
   <si>
-    <t>inherit</t>
-  </si>
-  <si>
     <t>var</t>
   </si>
   <si>
@@ -148,9 +262,6 @@
     <t>Version</t>
   </si>
   <si>
-    <t>(bool)</t>
-  </si>
-  <si>
     <t>Product_url</t>
   </si>
   <si>
@@ -202,9 +313,6 @@
     <t>method_exists</t>
   </si>
   <si>
-    <t>(string)</t>
-  </si>
-  <si>
     <t>YES + REQUIRED</t>
   </si>
   <si>
@@ -457,7 +565,7 @@
     <t>_filename_attach_prefix</t>
   </si>
   <si>
-    <t>GENERIC HANDLER FUNCTIONS</t>
+    <t>GENERIC HANDLER FUNCTIONS (including support for HOOKS)</t>
   </si>
   <si>
     <t>close</t>
@@ -611,7 +719,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -631,13 +739,45 @@
     <font>
       <i/>
     </font>
+    <font>
+      <i/>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <i/>
+      <color rgb="FF999999"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor rgb="FF00FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9900"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -651,7 +791,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -671,13 +811,46 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
   </cellXfs>
@@ -696,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="2.0" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B4" sqref="B4" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
@@ -707,48 +880,28 @@
     <col customWidth="1" min="3" max="3" width="2.57"/>
     <col customWidth="1" min="4" max="5" width="29.0"/>
     <col customWidth="1" min="6" max="6" width="10.0"/>
-    <col customWidth="1" min="9" max="9" width="16.57"/>
+    <col customWidth="1" min="9" max="10" width="16.57"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="4"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
@@ -764,55 +917,134 @@
       <c r="AA1" s="4"/>
       <c r="AB1" s="4"/>
       <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
     </row>
     <row r="2">
-      <c r="C2" s="5"/>
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4"/>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
-      <c r="K3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
     </row>
     <row r="4">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="A4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="A5" s="3"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="7"/>
+      <c r="C5" s="8"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -820,113 +1052,133 @@
       <c r="H5" s="3"/>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3"/>
+      <c r="A8" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="8"/>
       <c r="D9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3" t="s">
-        <v>16</v>
+        <v>28</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="8"/>
       <c r="D10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3" t="s">
-        <v>16</v>
+        <v>30</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="7"/>
+      <c r="C11" s="8"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -935,46 +1187,46 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="8"/>
       <c r="D12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="K12" s="3" t="s">
-        <v>16</v>
+      <c r="N12" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B13" s="3"/>
-      <c r="C13" s="7" t="s">
-        <v>20</v>
-      </c>
+      <c r="C13" s="8"/>
       <c r="D13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="K13" s="3"/>
+      <c r="N13" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="7"/>
+      <c r="C14" s="8"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -983,52 +1235,57 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="8"/>
       <c r="D15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3" t="s">
-        <v>16</v>
+      <c r="G15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="8"/>
       <c r="D16" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="3"/>
+        <v>38</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3" t="s">
-        <v>16</v>
+      <c r="G16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="7"/>
+      <c r="C17" s="8"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -1037,1698 +1294,1548 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="8"/>
       <c r="D18" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="M18" s="3" t="s">
-        <v>16</v>
+        <v>40</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="8"/>
       <c r="D19" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="M19" s="3" t="s">
-        <v>16</v>
+        <v>42</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
-      <c r="M20" s="3" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="8"/>
       <c r="D21" s="3" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+      <c r="F21" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
-      <c r="M21" s="3" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="8"/>
       <c r="D22" s="3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
+      <c r="F22" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
-      <c r="M22" s="3" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="8"/>
       <c r="D23" s="3" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+      <c r="F23" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-      <c r="M23" s="3" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="24">
-      <c r="A24" s="3"/>
+      <c r="A24" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="3"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
+      <c r="F24" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="s">
-        <v>41</v>
+      <c r="A25" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="B25" s="3"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="3"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
+      <c r="F25" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
     </row>
     <row r="26">
       <c r="A26" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>43</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="8"/>
       <c r="D26" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>16</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
     </row>
     <row r="27">
       <c r="A27" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>43</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="8"/>
       <c r="D27" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>16</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
     </row>
     <row r="28">
       <c r="A28" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>43</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="8"/>
       <c r="D28" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L28" s="3" t="s">
-        <v>16</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
     </row>
     <row r="29">
       <c r="A29" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>43</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="8"/>
       <c r="D29" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>16</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
     </row>
     <row r="30">
       <c r="A30" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>43</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="8"/>
       <c r="D30" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L30" s="3" t="s">
-        <v>16</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>43</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="8"/>
       <c r="D31" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>50</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="E31" s="3"/>
       <c r="F31" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L31" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>43</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="8"/>
       <c r="D32" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>16</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
     </row>
     <row r="33">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
-      <c r="C33" s="7"/>
+      <c r="C33" s="8"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
     </row>
     <row r="34">
-      <c r="A34" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H34" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="A34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
     </row>
     <row r="35">
-      <c r="C35" s="5"/>
+      <c r="A35" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C36" s="5"/>
+      <c r="A36" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="3" t="s">
-        <v>55</v>
-      </c>
+      <c r="A37" s="3"/>
       <c r="B37" s="3"/>
-      <c r="C37" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
     </row>
     <row r="38">
       <c r="A38" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="7" t="s">
-        <v>43</v>
+        <v>57</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F38" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="39">
-      <c r="C39" s="5"/>
+      <c r="B39" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C40" s="5"/>
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
     </row>
     <row r="41">
       <c r="A41" s="3" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>43</v>
+        <v>68</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>16</v>
+        <v>69</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="K41" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>43</v>
+        <v>57</v>
+      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D42" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="K42" s="3"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H42" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="C43" s="5"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C44" s="5"/>
+      <c r="C44" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="3" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>43</v>
+        <v>68</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>16</v>
+        <v>72</v>
+      </c>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="46">
-      <c r="C46" s="5"/>
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C47" s="5"/>
+      <c r="C47" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="N47" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="3" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>43</v>
+        <v>68</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G48" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H48" s="8" t="s">
-        <v>22</v>
+        <v>74</v>
+      </c>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="N48" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="3" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>43</v>
+        <v>66</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H49" s="8" t="s">
-        <v>22</v>
+        <v>75</v>
+      </c>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="N49" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="50">
-      <c r="C50" s="5"/>
+      <c r="A50" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="N50" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C51" s="5"/>
+      <c r="A51" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="N51" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="3" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>43</v>
+        <v>58</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G52" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H52" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3" t="s">
-        <v>75</v>
+        <v>78</v>
+      </c>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="N52" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G53" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H53" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
     </row>
     <row r="54">
-      <c r="A54" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G54" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H54" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="A54" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B54" s="3"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
     </row>
     <row r="55">
-      <c r="C55" s="5"/>
+      <c r="A55" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C56" s="5"/>
+      <c r="A56" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="3" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>43</v>
+        <v>62</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G57" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H57" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K57" s="3"/>
-      <c r="L57" s="3" t="s">
-        <v>75</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J57" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L57" s="3"/>
       <c r="M57" s="3" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="3" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>43</v>
+        <v>62</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G58" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H58" s="8" t="s">
-        <v>22</v>
+        <v>41</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I58" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J58" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="3" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>43</v>
+        <v>62</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G59" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H59" s="8" t="s">
-        <v>22</v>
+        <v>87</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J59" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="60">
-      <c r="C60" s="5"/>
+      <c r="A60" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I60" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J60" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="3" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>43</v>
+        <v>62</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G61" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H61" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K61" s="3"/>
-      <c r="L61" s="3" t="s">
-        <v>75</v>
+        <v>41</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J61" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L61" s="3"/>
+      <c r="M61" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D62" s="3" t="s">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E63" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G62" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H62" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="C63" s="5"/>
+      <c r="F63" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="C64" s="5"/>
     </row>
     <row r="65">
-      <c r="A65" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E65" s="3" t="s">
+      <c r="A65" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F65" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G65" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H65" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M65" s="3" t="s">
-        <v>92</v>
-      </c>
+      <c r="C65" s="5"/>
     </row>
     <row r="66">
       <c r="A66" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>43</v>
+        <v>92</v>
+      </c>
+      <c r="B66" s="3"/>
+      <c r="C66" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F66" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G66" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>67</v>
+        <v>18</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H66" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>43</v>
+        <v>57</v>
+      </c>
+      <c r="B67" s="3"/>
+      <c r="C67" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F67" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G67" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H67" s="3" t="s">
-        <v>67</v>
+        <v>18</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="68">
       <c r="C68" s="5"/>
     </row>
     <row r="69">
-      <c r="A69" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D69" s="3" t="s">
+      <c r="A69" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C69" s="5"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F70" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="E69" s="3" t="s">
+      <c r="G70" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I70" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="F69" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G69" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H69" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="C70" s="5"/>
+      <c r="J70" s="3"/>
+      <c r="N70" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="3" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="B71" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D71" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C71" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D71" s="3" t="s">
+      <c r="E71" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F71" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H71" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N71" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E71" s="3" t="s">
+    </row>
+    <row r="72">
+      <c r="C72" s="5"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F71" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G71" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="K71" s="3"/>
-      <c r="L71" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="F72" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G72" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="K72" s="3"/>
-      <c r="L72" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="73">
       <c r="C73" s="5"/>
     </row>
     <row r="74">
       <c r="A74" s="3" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>43</v>
+        <v>62</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="D74" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G74" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="C75" s="5"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E74" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F74" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G74" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H74" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K74" s="3"/>
-      <c r="L74" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="M74" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F75" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G75" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H75" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="F76" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G76" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>107</v>
-      </c>
+      <c r="C76" s="5"/>
     </row>
     <row r="77">
       <c r="A77" s="3" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>43</v>
+        <v>66</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F77" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G77" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H77" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F77" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H77" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D78" s="3" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="78">
-      <c r="C78" s="5"/>
+      <c r="E78" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F78" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H78" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="79">
-      <c r="A79" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F79" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G79" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H79" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="K79" s="3"/>
-      <c r="L79" s="3" t="s">
-        <v>102</v>
-      </c>
+      <c r="C79" s="5"/>
     </row>
     <row r="80">
-      <c r="A80" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F80" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G80" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H80" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="K80" s="3"/>
-      <c r="L80" s="3" t="s">
-        <v>102</v>
-      </c>
+      <c r="A80" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C80" s="5"/>
     </row>
     <row r="81">
       <c r="A81" s="3" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C81" s="7" t="s">
-        <v>43</v>
+        <v>66</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>105</v>
+        <v>39</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G81" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>57</v>
+        <v>19</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H81" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="K81" s="3"/>
-      <c r="L81" s="3" t="s">
-        <v>75</v>
-      </c>
+      <c r="L81" s="3"/>
       <c r="M81" s="3" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="3" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>43</v>
+        <v>66</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>105</v>
+        <v>39</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G82" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H82" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="K82" s="3"/>
-      <c r="L82" s="3" t="s">
-        <v>102</v>
+        <v>19</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H82" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="3" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>43</v>
+        <v>58</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G83" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K83" s="3"/>
-      <c r="L83" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>92</v>
+        <v>19</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H83" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C84" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F84" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G84" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H84" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="K84" s="3"/>
-      <c r="L84" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="M84" s="3" t="s">
-        <v>92</v>
-      </c>
+      <c r="C84" s="5"/>
     </row>
     <row r="85">
-      <c r="A85" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F85" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G85" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H85" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="K85" s="3"/>
-      <c r="L85" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="M85" s="3" t="s">
-        <v>92</v>
-      </c>
+      <c r="A85" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C85" s="5"/>
     </row>
     <row r="86">
       <c r="A86" s="3" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C86" s="7" t="s">
-        <v>43</v>
+        <v>68</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G86" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H86" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="G86" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H86" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="K86" s="3"/>
-      <c r="L86" s="3" t="s">
-        <v>75</v>
-      </c>
+      <c r="L86" s="3"/>
       <c r="M86" s="3" t="s">
-        <v>92</v>
+        <v>111</v>
+      </c>
+      <c r="N86" s="3" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="3" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C87" s="7" t="s">
-        <v>43</v>
+        <v>117</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F87" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G87" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H87" s="3" t="s">
-        <v>67</v>
+        <v>119</v>
+      </c>
+      <c r="F87" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H87" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="88">
-      <c r="C88" s="5"/>
+      <c r="A88" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F88" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G88" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H88" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="89">
-      <c r="A89" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C89" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F89" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G89" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="K89" s="3"/>
-      <c r="L89" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>75</v>
-      </c>
+      <c r="C89" s="5"/>
     </row>
     <row r="90">
       <c r="A90" s="3" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C90" s="7" t="s">
-        <v>43</v>
+        <v>58</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G90" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H90" s="3" t="s">
-        <v>57</v>
+        <v>19</v>
+      </c>
+      <c r="G90" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H90" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="K90" s="3"/>
-      <c r="L90" s="3" t="s">
-        <v>102</v>
-      </c>
+      <c r="L90" s="3"/>
       <c r="M90" s="3" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="3" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C91" s="7" t="s">
-        <v>43</v>
+        <v>62</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="D91" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E91" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>105</v>
-      </c>
       <c r="F91" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G91" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="K91" s="3"/>
-      <c r="L91" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>75</v>
+        <v>19</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H91" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C92" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D92" s="3" t="s">
+      <c r="C92" s="5"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E92" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F92" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G92" s="8"/>
-      <c r="H92" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F93" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G93" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H93" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="K93" s="3"/>
-      <c r="L93" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="M93" s="3" t="s">
-        <v>92</v>
-      </c>
+      <c r="C93" s="5"/>
     </row>
     <row r="94">
       <c r="A94" s="3" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C94" s="7" t="s">
-        <v>43</v>
+        <v>66</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="D94" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E94" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>61</v>
+      <c r="F94" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G94" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="3" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C95" s="7" t="s">
-        <v>43</v>
+        <v>66</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F95" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G95" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="F95" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G95" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="M95" s="3" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="3" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C96" s="7" t="s">
-        <v>43</v>
+        <v>66</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F96" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G96" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="F96" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G96" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="K96" s="3"/>
-      <c r="L96" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="97">
@@ -2736,32 +2843,28 @@
     </row>
     <row r="98">
       <c r="A98" s="3" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C98" s="7" t="s">
-        <v>43</v>
+        <v>66</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F98" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="G98" s="3" t="s">
-        <v>16</v>
+        <v>134</v>
+      </c>
+      <c r="F98" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G98" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K98" s="3"/>
-      <c r="L98" s="3" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
     </row>
     <row r="99">
@@ -2769,1156 +2872,1832 @@
     </row>
     <row r="100">
       <c r="A100" s="3" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C100" s="7" t="s">
-        <v>43</v>
+        <v>135</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="F100" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G100" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="F100" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G100" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>16</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="K100" s="3"/>
+      <c r="L100" s="3"/>
       <c r="M100" s="3" t="s">
-        <v>92</v>
+        <v>138</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="3" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C101" s="7" t="s">
-        <v>43</v>
+        <v>135</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="F101" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G101" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="F101" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G101" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>16</v>
+        <v>103</v>
+      </c>
+      <c r="K101" s="3"/>
+      <c r="L101" s="3"/>
+      <c r="M101" s="3" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C102" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F102" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G102" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M102" s="3" t="s">
-        <v>75</v>
-      </c>
+      <c r="C102" s="5"/>
     </row>
     <row r="103">
       <c r="A103" s="3" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C103" s="7" t="s">
-        <v>43</v>
+        <v>66</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F103" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G103" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="F103" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G103" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="K103" s="3"/>
-      <c r="L103" s="3" t="s">
-        <v>102</v>
+      <c r="L103" s="3"/>
+      <c r="M103" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="N103" s="3" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="3" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C104" s="7" t="s">
-        <v>43</v>
+        <v>62</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F104" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G104" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="F104" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G104" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="M104" s="3" t="s">
-        <v>92</v>
+        <v>143</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="3" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C105" s="7" t="s">
-        <v>43</v>
+        <v>144</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F105" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G105" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F105" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G105" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="M105" s="3" t="s">
-        <v>75</v>
+        <v>143</v>
       </c>
     </row>
     <row r="106">
-      <c r="C106" s="5"/>
+      <c r="A106" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F106" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G106" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="107">
-      <c r="A107" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="C107" s="5"/>
     </row>
     <row r="108">
       <c r="A108" s="3" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C108" s="7" t="s">
-        <v>43</v>
+        <v>144</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E108" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F108" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G108" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H108" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="F108" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G108" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H108" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="K108" s="3"/>
-      <c r="L108" s="3" t="s">
-        <v>75</v>
-      </c>
+      <c r="L108" s="3"/>
       <c r="M108" s="3" t="s">
-        <v>64</v>
+        <v>138</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="3" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C109" s="7" t="s">
-        <v>43</v>
+        <v>144</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F109" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G109" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="F109" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G109" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>16</v>
+        <v>143</v>
       </c>
       <c r="K109" s="3"/>
-      <c r="L109" s="3" t="s">
-        <v>75</v>
+      <c r="L109" s="3"/>
+      <c r="M109" s="3" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="3" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C110" s="7" t="s">
-        <v>43</v>
+        <v>144</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F110" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G110" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H110" s="8" t="s">
-        <v>22</v>
+        <v>141</v>
+      </c>
+      <c r="F110" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G110" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H110" s="14" t="s">
+        <v>94</v>
       </c>
       <c r="K110" s="3"/>
-      <c r="L110" s="3" t="s">
-        <v>75</v>
+      <c r="L110" s="3"/>
+      <c r="M110" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="N110" s="3" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="3" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C111" s="7" t="s">
-        <v>43</v>
+        <v>144</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F111" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G111" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H111" s="8" t="s">
-        <v>22</v>
+        <v>141</v>
+      </c>
+      <c r="F111" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G111" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H111" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="K111" s="3"/>
-      <c r="L111" s="3" t="s">
-        <v>75</v>
+      <c r="L111" s="3"/>
+      <c r="M111" s="3" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="3"/>
+      <c r="A112" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="B112" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C112" s="7" t="s">
-        <v>43</v>
+        <v>144</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F112" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G112" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H112" s="8" t="s">
-        <v>22</v>
+        <v>141</v>
+      </c>
+      <c r="F112" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G112" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K112" s="3"/>
+      <c r="L112" s="3"/>
+      <c r="M112" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="N112" s="3" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="113">
-      <c r="C113" s="5"/>
+      <c r="A113" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F113" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G113" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H113" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="K113" s="3"/>
+      <c r="L113" s="3"/>
+      <c r="M113" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="N113" s="3" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="114">
-      <c r="A114" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B114" s="3"/>
-      <c r="C114" s="7"/>
-      <c r="D114" s="3"/>
-      <c r="E114" s="3"/>
-      <c r="F114" s="9"/>
-      <c r="G114" s="8"/>
-      <c r="H114" s="3"/>
+      <c r="A114" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F114" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G114" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H114" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="K114" s="3"/>
+      <c r="L114" s="3"/>
+      <c r="M114" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="N114" s="3" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="3" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C115" s="7" t="s">
-        <v>43</v>
+        <v>144</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F115" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G115" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="F115" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G115" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K115" s="3" t="s">
-        <v>16</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="K115" s="3"/>
+      <c r="L115" s="3"/>
       <c r="M115" s="3" t="s">
-        <v>16</v>
+        <v>111</v>
+      </c>
+      <c r="N115" s="3" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="3" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C116" s="7" t="s">
-        <v>43</v>
+        <v>144</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="F116" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G116" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="F116" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G116" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K116" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L116" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="M116" s="3" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C117" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D117" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E117" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F117" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G117" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H117" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K117" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="M117" s="3" t="s">
-        <v>75</v>
-      </c>
+      <c r="C117" s="5"/>
     </row>
     <row r="118">
       <c r="A118" s="3" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C118" s="7" t="s">
-        <v>43</v>
+        <v>66</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="F118" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G118" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H118" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K118" s="3" t="s">
-        <v>153</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="F118" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G118" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H118" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="K118" s="3"/>
+      <c r="L118" s="3"/>
       <c r="M118" s="3" t="s">
-        <v>75</v>
+        <v>111</v>
+      </c>
+      <c r="N118" s="3" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="3" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C119" s="7" t="s">
-        <v>43</v>
+        <v>66</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F119" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G119" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H119" s="8" t="s">
-        <v>22</v>
+        <v>141</v>
+      </c>
+      <c r="F119" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G119" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H119" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="K119" s="3"/>
+      <c r="L119" s="3"/>
+      <c r="M119" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N119" s="3" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="3" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C120" s="7" t="s">
-        <v>43</v>
+        <v>66</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="F120" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G120" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H120" s="8" t="s">
-        <v>22</v>
+        <v>141</v>
+      </c>
+      <c r="F120" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G120" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H120" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="K120" s="3"/>
+      <c r="L120" s="3"/>
+      <c r="M120" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N120" s="3" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="3" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C121" s="7" t="s">
-        <v>43</v>
+        <v>66</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F121" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G121" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H121" s="3" t="s">
-        <v>16</v>
+        <v>141</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G121" s="7"/>
+      <c r="H121" s="14" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="3" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C122" s="7" t="s">
-        <v>43</v>
+        <v>66</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="F122" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G122" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H122" s="3" t="s">
-        <v>107</v>
+        <v>141</v>
+      </c>
+      <c r="F122" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G122" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H122" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="K122" s="3"/>
+      <c r="L122" s="3"/>
+      <c r="M122" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N122" s="3" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="3" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C123" s="7" t="s">
-        <v>43</v>
+        <v>66</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="F123" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G123" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H123" s="3" t="s">
-        <v>61</v>
+        <v>141</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="3" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C124" s="7" t="s">
-        <v>43</v>
+        <v>66</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>164</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="F124" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G124" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H124" s="3" t="s">
-        <v>61</v>
+        <v>141</v>
+      </c>
+      <c r="F124" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G124" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H124" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="N124" s="3" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="3" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C125" s="7" t="s">
-        <v>43</v>
+        <v>66</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F125" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G125" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H125" s="8" t="s">
-        <v>22</v>
+        <v>141</v>
+      </c>
+      <c r="F125" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="G125" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H125" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="K125" s="3"/>
-      <c r="L125" s="3" t="s">
-        <v>75</v>
+      <c r="L125" s="3"/>
+      <c r="M125" s="3" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C126" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D126" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="E126" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="F126" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="K126" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="C126" s="5"/>
     </row>
     <row r="127">
       <c r="A127" s="3" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C127" s="7" t="s">
-        <v>43</v>
+        <v>66</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="F127" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="K127" s="3" t="s">
-        <v>16</v>
+        <v>87</v>
+      </c>
+      <c r="F127" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="G127" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H127" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K127" s="3"/>
+      <c r="L127" s="3"/>
+      <c r="M127" s="3" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="128">
       <c r="C128" s="5"/>
     </row>
     <row r="129">
-      <c r="A129" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C129" s="5"/>
+      <c r="A129" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F129" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="G129" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H129" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N129" s="3" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="3" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C130" s="7" t="s">
-        <v>43</v>
+        <v>66</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="F130" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G130" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H130" s="8" t="s">
-        <v>22</v>
+        <v>170</v>
+      </c>
+      <c r="F130" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="G130" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H130" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="3" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C131" s="7" t="s">
-        <v>43</v>
+        <v>66</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="D131" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F131" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="G131" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H131" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N131" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F132" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G132" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H132" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="K132" s="3"/>
+      <c r="L132" s="3"/>
+      <c r="M132" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E133" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="E131" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="F131" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G131" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H131" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="C132" s="5"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C133" s="5"/>
+      <c r="F133" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G133" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H133" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="N133" s="3" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="3" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C134" s="7" t="s">
-        <v>43</v>
+        <v>66</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="D134" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F134" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="G134" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H134" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="N134" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="C135" s="5"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C136" s="5"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D137" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E134" s="3"/>
-      <c r="F134" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G134" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="H134" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="B135" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C135" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D135" s="3" t="s">
+      <c r="E137" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="E135" s="3"/>
-      <c r="F135" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G135" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="H135" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K135" s="3"/>
-      <c r="L135" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="C136" s="5"/>
-    </row>
-    <row r="137">
-      <c r="C137" s="5"/>
+      <c r="F137" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="G137" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H137" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K137" s="3"/>
+      <c r="L137" s="3"/>
+      <c r="M137" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="N137" s="3" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="138">
-      <c r="C138" s="5"/>
+      <c r="A138" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F138" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G138" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H138" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K138" s="3"/>
+      <c r="L138" s="3"/>
+      <c r="M138" s="3" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="139">
-      <c r="C139" s="5"/>
+      <c r="A139" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F139" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="G139" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H139" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K139" s="3"/>
+      <c r="L139" s="3"/>
+      <c r="M139" s="3" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="140">
-      <c r="A140" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C140" s="5"/>
+      <c r="A140" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C140" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F140" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="G140" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H140" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K140" s="3"/>
+      <c r="L140" s="3"/>
+      <c r="M140" s="3" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="141">
-      <c r="C141" s="7" t="s">
-        <v>43</v>
+      <c r="A141" s="3"/>
+      <c r="B141" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="E141" s="3"/>
-      <c r="K141" s="3"/>
-      <c r="L141" s="3" t="s">
-        <v>16</v>
+        <v>183</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F141" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="G141" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H141" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="142">
-      <c r="C142" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D142" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="E142" s="3"/>
-      <c r="K142" s="3"/>
-      <c r="L142" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="C142" s="5"/>
     </row>
     <row r="143">
-      <c r="C143" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D143" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E143" s="3"/>
-      <c r="K143" s="3"/>
-      <c r="L143" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="A143" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B143" s="3"/>
+      <c r="C143" s="8"/>
+      <c r="D143" s="3"/>
+      <c r="F143" s="1"/>
+      <c r="G143" s="7"/>
+      <c r="H143" s="3"/>
     </row>
     <row r="144">
-      <c r="C144" s="7" t="s">
-        <v>43</v>
+      <c r="A144" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E144" s="3"/>
-      <c r="K144" s="3"/>
-      <c r="L144" s="3" t="s">
-        <v>16</v>
+        <v>185</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F144" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G144" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H144" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K144" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N144" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="145">
-      <c r="C145" s="7" t="s">
-        <v>43</v>
+      <c r="A145" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="E145" s="3"/>
-      <c r="K145" s="3"/>
-      <c r="L145" s="3" t="s">
-        <v>16</v>
+        <v>186</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F145" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G145" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H145" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K145" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L145" s="3"/>
+      <c r="M145" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="N145" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C146" s="7" t="s">
-        <v>43</v>
+        <v>80</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C146" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="E146" s="3"/>
-      <c r="K146" s="3"/>
-      <c r="L146" s="3" t="s">
-        <v>16</v>
+        <v>188</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F146" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G146" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H146" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K146" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="N146" s="3" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C147" s="7" t="s">
-        <v>43</v>
+        <v>80</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C147" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E147" s="3"/>
-      <c r="K147" s="3"/>
-      <c r="L147" s="3" t="s">
-        <v>16</v>
+        <v>190</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F147" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G147" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H147" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K147" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="N147" s="3" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="148">
-      <c r="C148" s="5"/>
+      <c r="A148" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C148" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F148" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="G148" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H148" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C149" s="7" t="s">
-        <v>43</v>
+        <v>80</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C149" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="E149" s="3"/>
-      <c r="M149" s="3" t="s">
-        <v>16</v>
+        <v>194</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="F149" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="G149" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H149" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="150">
-      <c r="C150" s="7" t="s">
-        <v>43</v>
+      <c r="A150" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C150" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="E150" s="3"/>
-      <c r="M150" s="3" t="s">
-        <v>16</v>
+        <v>196</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F150" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="G150" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H150" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="151">
-      <c r="C151" s="7" t="s">
-        <v>43</v>
+      <c r="A151" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C151" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="E151" s="3"/>
-      <c r="M151" s="3" t="s">
-        <v>16</v>
+        <v>197</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F151" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G151" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H151" s="3" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C152" s="7" t="s">
-        <v>43</v>
+        <v>80</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C152" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E152" s="3"/>
-      <c r="M152" s="3" t="s">
-        <v>16</v>
+        <v>198</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F152" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G152" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H152" s="3" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="153">
-      <c r="C153" s="7" t="s">
-        <v>43</v>
+      <c r="A153" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C153" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="E153" s="3"/>
-      <c r="M153" s="3" t="s">
-        <v>16</v>
+        <v>200</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="F153" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G153" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H153" s="3" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="154">
-      <c r="C154" s="7" t="s">
-        <v>43</v>
+      <c r="A154" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C154" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="E154" s="3"/>
+        <v>202</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F154" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="G154" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H154" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K154" s="3"/>
+      <c r="L154" s="3"/>
       <c r="M154" s="3" t="s">
-        <v>16</v>
+        <v>111</v>
       </c>
     </row>
     <row r="155">
-      <c r="C155" s="7" t="s">
-        <v>43</v>
+      <c r="A155" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C155" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="E155" s="3"/>
-      <c r="M155" s="3" t="s">
-        <v>16</v>
+        <v>203</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F155" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="K155" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="156">
-      <c r="C156" s="7" t="s">
-        <v>43</v>
+      <c r="A156" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C156" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="E156" s="3"/>
-      <c r="M156" s="3" t="s">
-        <v>16</v>
+        <v>205</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F156" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="K156" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C157" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D157" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="E157" s="3"/>
-      <c r="M157" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="C157" s="5"/>
     </row>
     <row r="158">
-      <c r="A158" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C158" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D158" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E158" s="3"/>
-      <c r="M158" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="A158" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C158" s="5"/>
     </row>
     <row r="159">
-      <c r="C159" s="5"/>
+      <c r="A159" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C159" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F159" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G159" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H159" s="13" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="160">
-      <c r="C160" s="5"/>
+      <c r="A160" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C160" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="F160" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G160" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H160" s="13" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="161">
       <c r="C161" s="5"/>
     </row>
     <row r="162">
+      <c r="A162" s="1" t="s">
+        <v>213</v>
+      </c>
       <c r="C162" s="5"/>
     </row>
     <row r="163">
-      <c r="C163" s="5"/>
+      <c r="A163" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C163" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E163" s="3"/>
+      <c r="F163" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G163" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H163" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="164">
-      <c r="C164" s="5"/>
+      <c r="B164" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C164" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E164" s="3"/>
+      <c r="F164" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G164" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H164" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K164" s="3"/>
+      <c r="L164" s="3"/>
+      <c r="M164" s="3" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="165">
       <c r="C165" s="5"/>
     </row>
     <row r="166">
+      <c r="A166" s="1" t="s">
+        <v>216</v>
+      </c>
       <c r="C166" s="5"/>
     </row>
     <row r="167">
-      <c r="C167" s="5"/>
+      <c r="C167" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E167" s="3"/>
+      <c r="K167" s="3"/>
+      <c r="L167" s="3"/>
+      <c r="M167" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="168">
-      <c r="C168" s="5"/>
+      <c r="C168" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E168" s="3"/>
+      <c r="K168" s="3"/>
+      <c r="L168" s="3"/>
+      <c r="M168" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="169">
-      <c r="C169" s="5"/>
+      <c r="C169" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E169" s="3"/>
+      <c r="K169" s="3"/>
+      <c r="L169" s="3"/>
+      <c r="M169" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="170">
-      <c r="C170" s="5"/>
+      <c r="C170" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E170" s="3"/>
+      <c r="K170" s="3"/>
+      <c r="L170" s="3"/>
+      <c r="M170" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="171">
-      <c r="C171" s="5"/>
+      <c r="C171" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E171" s="3"/>
+      <c r="K171" s="3"/>
+      <c r="L171" s="3"/>
+      <c r="M171" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="172">
-      <c r="C172" s="5"/>
+      <c r="A172" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C172" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E172" s="3"/>
+      <c r="K172" s="3"/>
+      <c r="L172" s="3"/>
+      <c r="M172" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="173">
-      <c r="C173" s="5"/>
+      <c r="A173" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C173" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E173" s="3"/>
+      <c r="K173" s="3"/>
+      <c r="L173" s="3"/>
+      <c r="M173" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="174">
       <c r="C174" s="5"/>
     </row>
     <row r="175">
-      <c r="C175" s="5"/>
+      <c r="A175" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C175" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E175" s="3"/>
+      <c r="N175" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="176">
-      <c r="C176" s="5"/>
+      <c r="C176" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E176" s="3"/>
+      <c r="N176" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="177">
-      <c r="C177" s="5"/>
+      <c r="C177" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="E177" s="3"/>
+      <c r="N177" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="178">
-      <c r="C178" s="5"/>
+      <c r="A178" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C178" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E178" s="3"/>
+      <c r="N178" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="179">
-      <c r="C179" s="5"/>
+      <c r="C179" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E179" s="3"/>
+      <c r="N179" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="180">
-      <c r="C180" s="5"/>
+      <c r="C180" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="E180" s="3"/>
+      <c r="N180" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="181">
-      <c r="C181" s="5"/>
+      <c r="C181" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="E181" s="3"/>
+      <c r="N181" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="182">
-      <c r="C182" s="5"/>
+      <c r="C182" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E182" s="3"/>
+      <c r="N182" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="183">
-      <c r="C183" s="5"/>
+      <c r="A183" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C183" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E183" s="3"/>
+      <c r="N183" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="184">
-      <c r="C184" s="5"/>
+      <c r="A184" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C184" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E184" s="3"/>
+      <c r="N184" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="185">
       <c r="C185" s="5"/>
@@ -6469,6 +7248,84 @@
     </row>
     <row r="1034">
       <c r="C1034" s="5"/>
+    </row>
+    <row r="1035">
+      <c r="C1035" s="5"/>
+    </row>
+    <row r="1036">
+      <c r="C1036" s="5"/>
+    </row>
+    <row r="1037">
+      <c r="C1037" s="5"/>
+    </row>
+    <row r="1038">
+      <c r="C1038" s="5"/>
+    </row>
+    <row r="1039">
+      <c r="C1039" s="5"/>
+    </row>
+    <row r="1040">
+      <c r="C1040" s="5"/>
+    </row>
+    <row r="1041">
+      <c r="C1041" s="5"/>
+    </row>
+    <row r="1042">
+      <c r="C1042" s="5"/>
+    </row>
+    <row r="1043">
+      <c r="C1043" s="5"/>
+    </row>
+    <row r="1044">
+      <c r="C1044" s="5"/>
+    </row>
+    <row r="1045">
+      <c r="C1045" s="5"/>
+    </row>
+    <row r="1046">
+      <c r="C1046" s="5"/>
+    </row>
+    <row r="1047">
+      <c r="C1047" s="5"/>
+    </row>
+    <row r="1048">
+      <c r="C1048" s="5"/>
+    </row>
+    <row r="1049">
+      <c r="C1049" s="5"/>
+    </row>
+    <row r="1050">
+      <c r="C1050" s="5"/>
+    </row>
+    <row r="1051">
+      <c r="C1051" s="5"/>
+    </row>
+    <row r="1052">
+      <c r="C1052" s="5"/>
+    </row>
+    <row r="1053">
+      <c r="C1053" s="5"/>
+    </row>
+    <row r="1054">
+      <c r="C1054" s="5"/>
+    </row>
+    <row r="1055">
+      <c r="C1055" s="5"/>
+    </row>
+    <row r="1056">
+      <c r="C1056" s="5"/>
+    </row>
+    <row r="1057">
+      <c r="C1057" s="5"/>
+    </row>
+    <row r="1058">
+      <c r="C1058" s="5"/>
+    </row>
+    <row r="1059">
+      <c r="C1059" s="5"/>
+    </row>
+    <row r="1060">
+      <c r="C1060" s="5"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
